--- a/biology/Botanique/Nigritella/Nigritella.xlsx
+++ b/biology/Botanique/Nigritella/Nigritella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nigritella est un genre de plantes herbacées de la famille des orchidées dont le nom provient de la couleur, fréquemment sombre, de l'inflorescence (notamment celle de Nigritella nigra ou orchis vanille). Ce genre complexe, qui comporte de nombreuses variantes endémiques locales, est parfois inclus dans le genre Gymnadenia.
 Là où les espèces du genre Nigritella croissent avec celles du genre Gymnadenia s.s., on peut rencontrer des hybrides intergénériques, notamment Gymnadenia × chanousiana (Gymnadenia conopsea × Nigritella rhellicani) et Gymnadenia × heufleri (Gymnadenia odoratissima × Nigritella rhellicani).
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nigritella austriaca (Teppner &amp; E.Klein) P. Delforge (Syn. Gymnadenia austriaca (Teppner &amp; E.Klein) P.Delforge), nigritelle d'Autriche - Alpes orientales (souvent confondue avec N. rhellicani)
 Nigritella corneliana (Beauverd) Golz &amp; Reinhard (Syn. Gymnadenia corneliana (Beauverd) Teppner &amp; E. Klein), nigritelle de Cornelia, nigritelle rose - Alpes occidentales françaises et italiennes
